--- a/documents/COE开发数据.xlsx
+++ b/documents/COE开发数据.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11628" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11628" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="武器 - 剑" sheetId="2" r:id="rId2"/>
-    <sheet name="武器 - 弓" sheetId="5" r:id="rId3"/>
-    <sheet name="武器 - 法杖" sheetId="6" r:id="rId4"/>
-    <sheet name="防具" sheetId="3" r:id="rId5"/>
-    <sheet name="技能" sheetId="4" r:id="rId6"/>
+    <sheet name="角色" sheetId="7" r:id="rId1"/>
+    <sheet name="道具" sheetId="1" r:id="rId2"/>
+    <sheet name="武器 - 剑" sheetId="2" r:id="rId3"/>
+    <sheet name="武器 - 弓" sheetId="5" r:id="rId4"/>
+    <sheet name="武器 - 法杖" sheetId="6" r:id="rId5"/>
+    <sheet name="防具" sheetId="3" r:id="rId6"/>
+    <sheet name="技能" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="174">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,10 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风暴之心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腐蚀者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +493,238 @@
   </si>
   <si>
     <t>顾名思义，它是执行刺杀任务的最好伙伴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绯末 Famio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾菲亚 Rafia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林克 Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索菲亚 Sofia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初阶职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌注了暗黑的力量，能够附带暗属性攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿在手里几乎感觉不到重量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这把武器的特点就是在兼顾伤害的同时，也能考虑到使用者的速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全倾向伤害的武器，在进行攻击的时候很难躲避敌人的突袭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在熔岩中重生，所到之处烈焰漫天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说是海神的武器，远古时期战斗时它能引发滔天巨浪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲在阴暗处远远的射出箭矢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有神圣力量的弓，进行攻击时可以恢复持有者的生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样是一把令人闻风丧胆的武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种完美的特殊设计几乎能够让新手都能轻易打出必杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇长弓经过净化后的本体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石的弓身简直就是一件艺术品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用魔法的力量來引导水晶生长方向后形成弓的外形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守夜人的专属武器，得心应手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤害武器，作为代价，在战斗中会慢慢腐蚀持有者的生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一发箭矢射向敌人，另一发回声穿回敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变应万变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰角弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜猎弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸣强弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣翼长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚无之心使用雷晶石后的变化是无畏的电闪雷鸣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚无之心使用冰晶石后的变化是阴暗的霜冻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚无之心使用火晶石后的变化是燃尽一切的烈焰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚无之心使用圣晶石后的变化是治愈一切的星芒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚无之心使用暗晶石后的变化是绝望的无尽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据使用的晶石属性来改变伤害属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击降低敌人一定的攻击和速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击提升我方全体速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击治愈我方全体，最大生命值的1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复生命，最大生命值的5%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的火焰伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击有可能对敌人造成死亡。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,9 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,44 +841,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -757,6 +970,32 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -770,29 +1009,7849 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10400"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10100"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{68D37309-398C-4D41-BBA7-4AB1FAF54E50}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/radial6" loCatId="relationship" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Famio</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F940B28-FCB5-4AEE-9326-194B1D5DCCAD}" type="parTrans" cxnId="{90EDE11C-B37F-4B39-BD5E-2271FA3DBC7A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A6BEB0BF-B10E-4B11-90CA-8647F415CE39}" type="sibTrans" cxnId="{90EDE11C-B37F-4B39-BD5E-2271FA3DBC7A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D5FC5365-465C-4AFA-B16C-226A8BF3786C}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Rafia</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7EF9AFD5-6ECB-4AB5-817D-F410CA116907}" type="parTrans" cxnId="{B4F819E0-9F35-486F-B9E4-EA29E7978606}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E99BB6E6-739E-4105-95B7-EA4CE8C6F5A5}" type="sibTrans" cxnId="{B4F819E0-9F35-486F-B9E4-EA29E7978606}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C2DACE0-21E5-4667-989A-0852B6803B8A}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Link</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E17DCD6-30BE-46DF-A099-9BB6E83645CB}" type="parTrans" cxnId="{BE7C4E59-3EDE-4587-805A-881D0A2907E5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75E2F9CD-9F1D-437B-A3DE-63C89911D296}" type="sibTrans" cxnId="{BE7C4E59-3EDE-4587-805A-881D0A2907E5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC9DF340-95E0-40C1-94F8-D3B546C4616E}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Sofia</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55C32968-D63F-4798-A1F7-D1A2FFD542B9}" type="parTrans" cxnId="{18E5FAD9-1C89-4743-88EC-6D06D0C8BE8C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A553706B-AF75-4AF7-912B-A08963F3817D}" type="sibTrans" cxnId="{18E5FAD9-1C89-4743-88EC-6D06D0C8BE8C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" type="pres">
+      <dgm:prSet presAssocID="{68D37309-398C-4D41-BBA7-4AB1FAF54E50}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:dir/>
+          <dgm:animLvl val="ctr"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{88282540-0BA7-45BF-9D3F-01F7E700DA16}" type="pres">
+      <dgm:prSet presAssocID="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" presName="centerShape" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C7E6DADE-A108-444C-B74C-08C05E38424C}" type="pres">
+      <dgm:prSet presAssocID="{D5FC5365-465C-4AFA-B16C-226A8BF3786C}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AF43B4A7-106E-4A31-9B49-173F5BCEA9FF}" type="pres">
+      <dgm:prSet presAssocID="{D5FC5365-465C-4AFA-B16C-226A8BF3786C}" presName="dummy" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC5855D-E07A-475B-89A0-66606DC71B0C}" type="pres">
+      <dgm:prSet presAssocID="{E99BB6E6-739E-4105-95B7-EA4CE8C6F5A5}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92399CF5-5C73-437C-A728-069F888CD64D}" type="pres">
+      <dgm:prSet presAssocID="{6C2DACE0-21E5-4667-989A-0852B6803B8A}" presName="node" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D0CFD4E-C7E0-41CB-B28C-D8E10A61397B}" type="pres">
+      <dgm:prSet presAssocID="{6C2DACE0-21E5-4667-989A-0852B6803B8A}" presName="dummy" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4689551C-9C56-4F16-B44E-677524C56AB1}" type="pres">
+      <dgm:prSet presAssocID="{75E2F9CD-9F1D-437B-A3DE-63C89911D296}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{15A4FB66-691E-4B74-94B9-A935470A1BE1}" type="pres">
+      <dgm:prSet presAssocID="{FC9DF340-95E0-40C1-94F8-D3B546C4616E}" presName="node" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D3B720D-D992-4F49-9AB5-0B46711B5D8D}" type="pres">
+      <dgm:prSet presAssocID="{FC9DF340-95E0-40C1-94F8-D3B546C4616E}" presName="dummy" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2B28598C-AF3A-4EAB-AB37-1BEF7285BCC7}" type="pres">
+      <dgm:prSet presAssocID="{A553706B-AF75-4AF7-912B-A08963F3817D}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{9748C500-1391-4DD5-8310-4E00E1D3BE18}" type="presOf" srcId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" destId="{88282540-0BA7-45BF-9D3F-01F7E700DA16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{90EDE11C-B37F-4B39-BD5E-2271FA3DBC7A}" srcId="{68D37309-398C-4D41-BBA7-4AB1FAF54E50}" destId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" srcOrd="0" destOrd="0" parTransId="{6F940B28-FCB5-4AEE-9326-194B1D5DCCAD}" sibTransId="{A6BEB0BF-B10E-4B11-90CA-8647F415CE39}"/>
+    <dgm:cxn modelId="{29EF3721-6ECC-4E8C-B56C-A699D21B21A5}" type="presOf" srcId="{FC9DF340-95E0-40C1-94F8-D3B546C4616E}" destId="{15A4FB66-691E-4B74-94B9-A935470A1BE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{1E9E7672-8B3B-43AB-B73D-9A4E2A038263}" type="presOf" srcId="{6C2DACE0-21E5-4667-989A-0852B6803B8A}" destId="{92399CF5-5C73-437C-A728-069F888CD64D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{BE7C4E59-3EDE-4587-805A-881D0A2907E5}" srcId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" destId="{6C2DACE0-21E5-4667-989A-0852B6803B8A}" srcOrd="1" destOrd="0" parTransId="{4E17DCD6-30BE-46DF-A099-9BB6E83645CB}" sibTransId="{75E2F9CD-9F1D-437B-A3DE-63C89911D296}"/>
+    <dgm:cxn modelId="{94FFB09F-54FA-461E-B105-7F29B5BE6E13}" type="presOf" srcId="{68D37309-398C-4D41-BBA7-4AB1FAF54E50}" destId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{3523E0AF-58BC-43A0-9239-A03962C4503F}" type="presOf" srcId="{E99BB6E6-739E-4105-95B7-EA4CE8C6F5A5}" destId="{7AC5855D-E07A-475B-89A0-66606DC71B0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{7BEED7B5-51AA-438E-A941-62E2D42446E0}" type="presOf" srcId="{A553706B-AF75-4AF7-912B-A08963F3817D}" destId="{2B28598C-AF3A-4EAB-AB37-1BEF7285BCC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{18E5FAD9-1C89-4743-88EC-6D06D0C8BE8C}" srcId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" destId="{FC9DF340-95E0-40C1-94F8-D3B546C4616E}" srcOrd="2" destOrd="0" parTransId="{55C32968-D63F-4798-A1F7-D1A2FFD542B9}" sibTransId="{A553706B-AF75-4AF7-912B-A08963F3817D}"/>
+    <dgm:cxn modelId="{7FF74EDA-C12F-41C1-9EBE-ADE79D040C7D}" type="presOf" srcId="{D5FC5365-465C-4AFA-B16C-226A8BF3786C}" destId="{C7E6DADE-A108-444C-B74C-08C05E38424C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{D3AF8DDC-E106-4617-92BF-8FAD59FEEC48}" type="presOf" srcId="{75E2F9CD-9F1D-437B-A3DE-63C89911D296}" destId="{4689551C-9C56-4F16-B44E-677524C56AB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{B4F819E0-9F35-486F-B9E4-EA29E7978606}" srcId="{DA94AB5C-7C85-4F55-930F-800995CC5A43}" destId="{D5FC5365-465C-4AFA-B16C-226A8BF3786C}" srcOrd="0" destOrd="0" parTransId="{7EF9AFD5-6ECB-4AB5-817D-F410CA116907}" sibTransId="{E99BB6E6-739E-4105-95B7-EA4CE8C6F5A5}"/>
+    <dgm:cxn modelId="{38070A1F-568A-4F3C-81C9-00BE81F0E079}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{88282540-0BA7-45BF-9D3F-01F7E700DA16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{93B99E07-93EC-47D9-A4E7-0AF343C68058}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{C7E6DADE-A108-444C-B74C-08C05E38424C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{B7E2D5C2-CFF6-4FD8-BFAA-404E92A576A9}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{AF43B4A7-106E-4A31-9B49-173F5BCEA9FF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{F9F2C920-EFD3-4701-81F4-647A47EAD167}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{7AC5855D-E07A-475B-89A0-66606DC71B0C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{D31C4125-7EB0-4FC1-A51A-B0B9FAB745E4}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{92399CF5-5C73-437C-A728-069F888CD64D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{CDA88071-06F2-4200-AEBC-835DDE77F7FA}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{8D0CFD4E-C7E0-41CB-B28C-D8E10A61397B}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{D112E650-B837-4D3B-A5FB-5A745D4D9539}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{4689551C-9C56-4F16-B44E-677524C56AB1}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{36A64935-5D4A-488A-AB85-7E2F1AB549C6}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{15A4FB66-691E-4B74-94B9-A935470A1BE1}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{152EDEAF-B40B-46D2-A15F-B6D63B98BD38}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{8D3B720D-D992-4F49-9AB5-0B46711B5D8D}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+    <dgm:cxn modelId="{2640F000-CCCB-4348-9410-C7CE78E165EB}" type="presParOf" srcId="{764680CB-D3A2-49F0-855A-61DA58A03B3C}" destId="{2B28598C-AF3A-4EAB-AB37-1BEF7285BCC7}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial6"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9620C78A-21C7-40AC-8284-EA815AF2164C}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>佣兵 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>剑士 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>骑士</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{88CD9A36-1224-4FD0-91D8-992BCD5761D1}" type="parTrans" cxnId="{910CB6CB-F71F-4D18-A1F3-CD6C636266A7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B3920754-546D-4AC6-A1C7-BA35B1A42FCC}" type="sibTrans" cxnId="{910CB6CB-F71F-4D18-A1F3-CD6C636266A7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>斥候 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>弓手 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>游侠</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{57BD4400-EF24-430D-8FAC-177CD382FD7D}" type="parTrans" cxnId="{3523EE37-F4BC-422C-8DFB-0F4BCDDF1215}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E4C4E3A-9F6C-4FB8-8064-DD59D26EEBC5}" type="sibTrans" cxnId="{3523EE37-F4BC-422C-8DFB-0F4BCDDF1215}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>学徒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>法师 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>贤者</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C009166-42E7-4639-9606-5A32E7C7C3EA}" type="parTrans" cxnId="{1ADD62A1-0863-4838-84BB-FBB74B590934}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{99629BFA-C1EE-4026-8F10-2DD018E69F75}" type="sibTrans" cxnId="{1ADD62A1-0863-4838-84BB-FBB74B590934}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>神官 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>祭司 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>主教</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EEF876E2-80B4-495B-B09C-6E28EFB4A9D3}" type="parTrans" cxnId="{80C2D85C-410E-41B4-91E5-CDB4F720FF2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9857DF08-F20C-4651-A414-5DA694D7FEB0}" type="sibTrans" cxnId="{80C2D85C-410E-41B4-91E5-CDB4F720FF2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{074CC0CB-2AEF-4396-89C1-C14994375A53}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="7"/>
+          <dgm:chPref val="7"/>
+          <dgm:dir/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="Name1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="cycle" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74030730-DC8B-403C-B00B-81790E40DAB1}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="srcNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0DD045C4-A947-40F8-8938-F9E24B07D0A4}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="conn" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F4E40ACD-4BC3-46B7-AB3C-C606D890AAE2}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="extraNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5DEA07CB-637B-46CA-A79B-CADC3BDC594E}" type="pres">
+      <dgm:prSet presAssocID="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" presName="dstNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08422043-CDE7-4034-8B4B-C5A2E5DF102C}" type="pres">
+      <dgm:prSet presAssocID="{9620C78A-21C7-40AC-8284-EA815AF2164C}" presName="text_1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E69D83E9-83DF-4874-8ECE-FC5366D2EAF2}" type="pres">
+      <dgm:prSet presAssocID="{9620C78A-21C7-40AC-8284-EA815AF2164C}" presName="accent_1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{382D7CFA-0A15-4BE3-82E0-A183095DE763}" type="pres">
+      <dgm:prSet presAssocID="{9620C78A-21C7-40AC-8284-EA815AF2164C}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{FB07E80E-AAE1-4B80-8886-2CD3947262DE}" type="pres">
+      <dgm:prSet presAssocID="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}" presName="text_2" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{501F9FA7-A2DB-41F3-8523-B871433E5F2A}" type="pres">
+      <dgm:prSet presAssocID="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}" presName="accent_2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C7A73D1-0116-4798-8AAE-CC464B8B3B19}" type="pres">
+      <dgm:prSet presAssocID="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{DF6C7E6E-52AD-486C-BD3E-114E84851617}" type="pres">
+      <dgm:prSet presAssocID="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}" presName="text_3" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{40B940EB-C048-4BA7-8CFB-4D5EBD121BFF}" type="pres">
+      <dgm:prSet presAssocID="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}" presName="accent_3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7230D769-83A9-46A7-A326-452336395835}" type="pres">
+      <dgm:prSet presAssocID="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{66BD7844-C204-472A-B44B-6D3C8D29087D}" type="pres">
+      <dgm:prSet presAssocID="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}" presName="text_4" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D2FA435-43D7-4FC8-B37E-815705F0EA10}" type="pres">
+      <dgm:prSet presAssocID="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}" presName="accent_4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2D4964B1-1933-4565-8014-FBD559F0EDBC}" type="pres">
+      <dgm:prSet presAssocID="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{63575805-56C2-404A-AA92-9E8BFDC628E5}" type="presOf" srcId="{B3920754-546D-4AC6-A1C7-BA35B1A42FCC}" destId="{0DD045C4-A947-40F8-8938-F9E24B07D0A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{B2679B0D-B738-45C3-AF6B-695B9F456EDF}" type="presOf" srcId="{9620C78A-21C7-40AC-8284-EA815AF2164C}" destId="{08422043-CDE7-4034-8B4B-C5A2E5DF102C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{33C85A12-33E9-4698-AD41-0D1C553B4946}" type="presOf" srcId="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}" destId="{DF6C7E6E-52AD-486C-BD3E-114E84851617}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{9D1A7636-846F-4D7E-9C4F-4F8AB051EEC7}" type="presOf" srcId="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}" destId="{66BD7844-C204-472A-B44B-6D3C8D29087D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{3523EE37-F4BC-422C-8DFB-0F4BCDDF1215}" srcId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" destId="{4CCA422D-9969-4C10-88AE-6F68CF0FA721}" srcOrd="2" destOrd="0" parTransId="{57BD4400-EF24-430D-8FAC-177CD382FD7D}" sibTransId="{5E4C4E3A-9F6C-4FB8-8064-DD59D26EEBC5}"/>
+    <dgm:cxn modelId="{80C2D85C-410E-41B4-91E5-CDB4F720FF2D}" srcId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" destId="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}" srcOrd="1" destOrd="0" parTransId="{EEF876E2-80B4-495B-B09C-6E28EFB4A9D3}" sibTransId="{9857DF08-F20C-4651-A414-5DA694D7FEB0}"/>
+    <dgm:cxn modelId="{2F41364D-5A78-42B4-91A4-5EB59EA0A6EB}" type="presOf" srcId="{A10CA3E2-B5D0-4E8C-AD0F-D9C19DCFF9C2}" destId="{FB07E80E-AAE1-4B80-8886-2CD3947262DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{1ADD62A1-0863-4838-84BB-FBB74B590934}" srcId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" destId="{2EAACBE7-9103-4D0D-9D13-94B65EFADE98}" srcOrd="3" destOrd="0" parTransId="{7C009166-42E7-4639-9606-5A32E7C7C3EA}" sibTransId="{99629BFA-C1EE-4026-8F10-2DD018E69F75}"/>
+    <dgm:cxn modelId="{62F8CDC0-B81C-454C-89A8-8A621E9D2AE8}" type="presOf" srcId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" destId="{074CC0CB-2AEF-4396-89C1-C14994375A53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{910CB6CB-F71F-4D18-A1F3-CD6C636266A7}" srcId="{4BCEF704-90C9-4A92-83A6-A13EDA9BA058}" destId="{9620C78A-21C7-40AC-8284-EA815AF2164C}" srcOrd="0" destOrd="0" parTransId="{88CD9A36-1224-4FD0-91D8-992BCD5761D1}" sibTransId="{B3920754-546D-4AC6-A1C7-BA35B1A42FCC}"/>
+    <dgm:cxn modelId="{6FF70B55-F31F-4512-B5BC-6251838D9790}" type="presParOf" srcId="{074CC0CB-2AEF-4396-89C1-C14994375A53}" destId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{044D2CF2-4326-455B-93FB-97DE48A97DED}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{BB52343E-8AD4-4225-92B6-B2F27DBBDD4A}" type="presParOf" srcId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" destId="{74030730-DC8B-403C-B00B-81790E40DAB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{61F9BBBF-C40F-4B40-B1C7-22F0230E9C75}" type="presParOf" srcId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" destId="{0DD045C4-A947-40F8-8938-F9E24B07D0A4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{059605E8-F35E-4437-B3C0-48A6AF887092}" type="presParOf" srcId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" destId="{F4E40ACD-4BC3-46B7-AB3C-C606D890AAE2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{79B3F0DA-2098-4805-B2B4-D04067C6ADCF}" type="presParOf" srcId="{74EC752B-1FCA-400F-BCD5-787AF7B0B068}" destId="{5DEA07CB-637B-46CA-A79B-CADC3BDC594E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{E9880425-F8DD-48DD-99BD-BE1D07039E49}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{08422043-CDE7-4034-8B4B-C5A2E5DF102C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{7649AC74-834A-4F9C-BA29-D1B049A5A9AD}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{E69D83E9-83DF-4874-8ECE-FC5366D2EAF2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{8A864C38-C939-4B56-874C-3B8E573755D4}" type="presParOf" srcId="{E69D83E9-83DF-4874-8ECE-FC5366D2EAF2}" destId="{382D7CFA-0A15-4BE3-82E0-A183095DE763}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{98EE5644-B7BF-41E3-8953-E064A91ADBC4}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{FB07E80E-AAE1-4B80-8886-2CD3947262DE}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{24148813-62AB-4E72-9C59-3B170132D61C}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{501F9FA7-A2DB-41F3-8523-B871433E5F2A}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{7DD68F3B-93A9-4DA8-9266-1E8585B13281}" type="presParOf" srcId="{501F9FA7-A2DB-41F3-8523-B871433E5F2A}" destId="{6C7A73D1-0116-4798-8AAE-CC464B8B3B19}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{0BA43618-F5AE-4289-867D-CC0A418978B8}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{DF6C7E6E-52AD-486C-BD3E-114E84851617}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{077183C8-703F-4F65-9291-84935FACEC2F}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{40B940EB-C048-4BA7-8CFB-4D5EBD121BFF}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{8ECD482A-58C5-4BC4-93AE-57A420D6177F}" type="presParOf" srcId="{40B940EB-C048-4BA7-8CFB-4D5EBD121BFF}" destId="{7230D769-83A9-46A7-A326-452336395835}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{3ED86C4F-A20D-4AE7-80EA-967318A3018E}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{66BD7844-C204-472A-B44B-6D3C8D29087D}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{8950E499-4BE5-4785-BD50-20132A8B11BD}" type="presParOf" srcId="{53B081C8-7DEF-4D86-87B8-44299ABED5B3}" destId="{1D2FA435-43D7-4FC8-B37E-815705F0EA10}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{A1D4FC00-731D-4B78-A8C7-C84F9B733D43}" type="presParOf" srcId="{1D2FA435-43D7-4FC8-B37E-815705F0EA10}" destId="{2D4964B1-1933-4565-8014-FBD559F0EDBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId14" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{2B28598C-AF3A-4EAB-AB37-1BEF7285BCC7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="988907" y="358477"/>
+          <a:ext cx="2398529" cy="2398529"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9000000"/>
+            <a:gd name="adj2" fmla="val 16200000"/>
+            <a:gd name="adj3" fmla="val 4634"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="9800891"/>
+            <a:satOff val="-40777"/>
+            <a:lumOff val="9608"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4689551C-9C56-4F16-B44E-677524C56AB1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="988907" y="358477"/>
+          <a:ext cx="2398529" cy="2398529"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+            <a:gd name="adj2" fmla="val 9000000"/>
+            <a:gd name="adj3" fmla="val 4634"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="4900445"/>
+            <a:satOff val="-20388"/>
+            <a:lumOff val="4804"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7AC5855D-E07A-475B-89A0-66606DC71B0C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="988907" y="358477"/>
+          <a:ext cx="2398529" cy="2398529"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 1800000"/>
+            <a:gd name="adj3" fmla="val 4634"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{88282540-0BA7-45BF-9D3F-01F7E700DA16}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1636855" y="1006425"/>
+          <a:ext cx="1102633" cy="1102633"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="29210" tIns="29210" rIns="29210" bIns="29210" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1022350">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2300" kern="1200"/>
+            <a:t>Famio</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1798332" y="1167902"/>
+        <a:ext cx="779679" cy="779679"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C7E6DADE-A108-444C-B74C-08C05E38424C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1802250" y="341"/>
+          <a:ext cx="771843" cy="771843"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24130" tIns="24130" rIns="24130" bIns="24130" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>Rafia</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1915284" y="113375"/>
+        <a:ext cx="545775" cy="545775"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{92399CF5-5C73-437C-A728-069F888CD64D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2816780" y="1757559"/>
+          <a:ext cx="771843" cy="771843"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="4900445"/>
+            <a:satOff val="-20388"/>
+            <a:lumOff val="4804"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24130" tIns="24130" rIns="24130" bIns="24130" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>Link</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2929814" y="1870593"/>
+        <a:ext cx="545775" cy="545775"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{15A4FB66-691E-4B74-94B9-A935470A1BE1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="787720" y="1757559"/>
+          <a:ext cx="771843" cy="771843"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="9800891"/>
+            <a:satOff val="-40777"/>
+            <a:lumOff val="9608"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24130" tIns="24130" rIns="24130" bIns="24130" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>Sofia</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="900754" y="1870593"/>
+        <a:ext cx="545775" cy="545775"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{0DD045C4-A947-40F8-8938-F9E24B07D0A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="-3074827" y="-473402"/>
+          <a:ext cx="3667750" cy="3667750"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18900000"/>
+            <a:gd name="adj2" fmla="val 2700000"/>
+            <a:gd name="adj3" fmla="val 589"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{08422043-CDE7-4034-8B4B-C5A2E5DF102C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="311041" y="209186"/>
+          <a:ext cx="5363260" cy="418590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>佣兵 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>剑士 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>骑士</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="311041" y="209186"/>
+        <a:ext cx="5363260" cy="418590"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{382D7CFA-0A15-4BE3-82E0-A183095DE763}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="49422" y="156862"/>
+          <a:ext cx="523237" cy="523237"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{FB07E80E-AAE1-4B80-8886-2CD3947262DE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="551028" y="837180"/>
+          <a:ext cx="5123272" cy="418590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>神官 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>祭司 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>主教</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="551028" y="837180"/>
+        <a:ext cx="5123272" cy="418590"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6C7A73D1-0116-4798-8AAE-CC464B8B3B19}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="289409" y="784856"/>
+          <a:ext cx="523237" cy="523237"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DF6C7E6E-52AD-486C-BD3E-114E84851617}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="551028" y="1465174"/>
+          <a:ext cx="5123272" cy="418590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>斥候 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>弓手 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>游侠</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="551028" y="1465174"/>
+        <a:ext cx="5123272" cy="418590"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7230D769-83A9-46A7-A326-452336395835}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="289409" y="1412850"/>
+          <a:ext cx="523237" cy="523237"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{66BD7844-C204-472A-B44B-6D3C8D29087D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="311041" y="2093168"/>
+          <a:ext cx="5363260" cy="418590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>学徒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>法师 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>— </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>贤者</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="311041" y="2093168"/>
+        <a:ext cx="5363260" cy="418590"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2D4964B1-1933-4565-8014-FBD559F0EDBC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="49422" y="2040844"/>
+          <a:ext cx="523237" cy="523237"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/radial6">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="cycle" pri="9000"/>
+    <dgm:cat type="relationship" pri="21000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="13">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="14">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="3" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="14" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="15" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+        <dgm:pt modelId="14"/>
+        <dgm:pt modelId="15"/>
+        <dgm:pt modelId="16"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="18" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="19" srcId="1" destId="14" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="20" srcId="1" destId="15" srcOrd="4" destOrd="0"/>
+        <dgm:cxn modelId="21" srcId="1" destId="16" srcOrd="5" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="1"/>
+      <dgm:dir/>
+      <dgm:animLvl val="ctr"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:choose name="Name3">
+          <dgm:if name="Name4" axis="ch ch" ptType="node node" st="1 1" cnt="1 0" func="cnt" op="lte" val="1">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="90"/>
+              <dgm:param type="spanAng" val="360"/>
+              <dgm:param type="ctrShpMap" val="fNode"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name5">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="0"/>
+              <dgm:param type="spanAng" val="360"/>
+              <dgm:param type="ctrShpMap" val="fNode"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:if>
+      <dgm:else name="Name6">
+        <dgm:choose name="Name7">
+          <dgm:if name="Name8" axis="ch ch" ptType="node node" st="1 1" cnt="1 0" func="cnt" op="lte" val="1">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="-90"/>
+              <dgm:param type="spanAng" val="360"/>
+              <dgm:param type="ctrShpMap" val="fNode"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name9">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="0"/>
+              <dgm:param type="spanAng" val="-360"/>
+              <dgm:param type="ctrShpMap" val="fNode"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name10">
+      <dgm:if name="Name11" func="var" arg="dir" op="equ" val="norm">
+        <dgm:choose name="Name12">
+          <dgm:if name="Name13" axis="ch ch" ptType="node node" st="1 1" cnt="1 0" func="cnt" op="equ" val="1">
+            <dgm:constrLst>
+              <dgm:constr type="diam" val="170"/>
+              <dgm:constr type="w" for="ch" forName="centerShape" refType="w"/>
+              <dgm:constr type="w" for="ch" forName="oneComp" refType="w" refFor="ch" refForName="centerShape" op="equ" fact="0.7"/>
+              <dgm:constr type="sp" refType="w" refFor="ch" refForName="oneComp" fact="0.3"/>
+              <dgm:constr type="sibSp" refType="w" refFor="ch" refForName="oneComp" fact="0.3"/>
+              <dgm:constr type="primFontSz" for="ch" forName="centerShape" val="65"/>
+              <dgm:constr type="primFontSz" for="des" forName="oneNode" refType="primFontSz" refFor="ch" refForName="centerShape" fact="0.95"/>
+              <dgm:constr type="primFontSz" for="des" forName="oneNode" refType="primFontSz" refFor="ch" refForName="centerShape" op="lte" fact="0.95"/>
+              <dgm:constr type="diam" for="ch" forName="singleconn" refType="diam" op="equ" fact="-1"/>
+              <dgm:constr type="h" for="ch" forName="singleconn" refType="w" refFor="ch" refForName="oneComp" fact="0.24"/>
+              <dgm:constr type="w" for="ch" forName="dummya" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+              <dgm:constr type="w" for="ch" forName="dummyb" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+              <dgm:constr type="w" for="ch" forName="dummyc" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name14">
+            <dgm:constrLst>
+              <dgm:constr type="diam" val="170"/>
+              <dgm:constr type="w" for="ch" forName="centerShape" refType="w"/>
+              <dgm:constr type="w" for="ch" forName="node" refType="w" refFor="ch" refForName="centerShape" op="equ" fact="0.7"/>
+              <dgm:constr type="sp" refType="w" refFor="ch" refForName="node" fact="0.3"/>
+              <dgm:constr type="sibSp" refType="w" refFor="ch" refForName="node" fact="0.3"/>
+              <dgm:constr type="primFontSz" for="ch" forName="centerShape" val="65"/>
+              <dgm:constr type="primFontSz" for="des" forName="node" refType="primFontSz" refFor="ch" refForName="centerShape" fact="0.78"/>
+              <dgm:constr type="primFontSz" for="ch" forName="node" refType="primFontSz" refFor="ch" refForName="centerShape" op="lte" fact="0.95"/>
+              <dgm:constr type="diam" for="ch" forName="sibTrans" refType="diam" op="equ"/>
+              <dgm:constr type="h" for="ch" forName="sibTrans" refType="w" refFor="ch" refForName="node" fact="0.24"/>
+              <dgm:constr type="w" for="ch" forName="dummy" val="1"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:if>
+      <dgm:else name="Name15">
+        <dgm:choose name="Name16">
+          <dgm:if name="Name17" axis="ch ch" ptType="node node" st="1 1" cnt="1 0" func="cnt" op="equ" val="1">
+            <dgm:constrLst>
+              <dgm:constr type="diam" val="170"/>
+              <dgm:constr type="w" for="ch" forName="centerShape" refType="w"/>
+              <dgm:constr type="w" for="ch" forName="oneComp" refType="w" refFor="ch" refForName="centerShape" op="equ" fact="0.7"/>
+              <dgm:constr type="sp" refType="w" refFor="ch" refForName="oneComp" fact="0.3"/>
+              <dgm:constr type="sibSp" refType="w" refFor="ch" refForName="oneComp" fact="0.3"/>
+              <dgm:constr type="primFontSz" for="ch" forName="centerShape" val="65"/>
+              <dgm:constr type="primFontSz" for="des" forName="oneNode" refType="primFontSz" refFor="ch" refForName="centerShape" fact="0.95"/>
+              <dgm:constr type="primFontSz" for="ch" forName="oneNode" refType="primFontSz" refFor="ch" refForName="centerShape" op="lte" fact="0.95"/>
+              <dgm:constr type="diam" for="ch" forName="singleconn" refType="diam"/>
+              <dgm:constr type="h" for="ch" forName="singleconn" refType="w" refFor="ch" refForName="oneComp" fact="0.24"/>
+              <dgm:constr type="diam" for="ch" refType="diam" op="equ"/>
+              <dgm:constr type="w" for="ch" forName="dummya" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+              <dgm:constr type="w" for="ch" forName="dummyb" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+              <dgm:constr type="w" for="ch" forName="dummyc" refType="w" refFor="ch" refForName="oneComp" op="equ"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name18">
+            <dgm:constrLst>
+              <dgm:constr type="diam" val="170"/>
+              <dgm:constr type="w" for="ch" forName="centerShape" refType="w"/>
+              <dgm:constr type="w" for="ch" forName="node" refType="w" refFor="ch" refForName="centerShape" op="equ" fact="0.7"/>
+              <dgm:constr type="sp" refType="w" refFor="ch" refForName="node" fact="0.3"/>
+              <dgm:constr type="sibSp" refType="w" refFor="ch" refForName="node" fact="0.3"/>
+              <dgm:constr type="primFontSz" for="ch" forName="centerShape" val="65"/>
+              <dgm:constr type="primFontSz" for="des" forName="node" refType="primFontSz" refFor="ch" refForName="centerShape" fact="0.78"/>
+              <dgm:constr type="primFontSz" for="ch" forName="node" refType="primFontSz" refFor="ch" refForName="centerShape" op="lte" fact="0.95"/>
+              <dgm:constr type="diam" for="ch" ptType="sibTrans" refType="diam" fact="-1"/>
+              <dgm:constr type="h" for="ch" forName="sibTrans" refType="w" refFor="ch" refForName="node" fact="0.24"/>
+              <dgm:constr type="diam" for="ch" refType="diam" op="equ" fact="-1"/>
+              <dgm:constr type="w" for="ch" forName="dummy" val="1"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst>
+      <dgm:rule type="diam" val="INF" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name19" axis="ch" ptType="node" cnt="1">
+      <dgm:layoutNode name="centerShape" styleLbl="node0">
+        <dgm:alg type="tx"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf axis="self"/>
+        <dgm:constrLst>
+          <dgm:constr type="h" refType="w"/>
+          <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+          <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+          <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+          <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name20" axis="ch">
+        <dgm:forEach name="Name21" axis="self" ptType="node">
+          <dgm:choose name="Name22">
+            <dgm:if name="Name23" axis="par ch" ptType="node node" func="cnt" op="gt" val="1">
+              <dgm:layoutNode name="node" styleLbl="node1">
+                <dgm:varLst>
+                  <dgm:bulletEnabled val="1"/>
+                </dgm:varLst>
+                <dgm:alg type="tx">
+                  <dgm:param type="txAnchorVertCh" val="mid"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf axis="desOrSelf" ptType="node"/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+                </dgm:constrLst>
+                <dgm:ruleLst>
+                  <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                </dgm:ruleLst>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="dummy">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                </dgm:constrLst>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+              <dgm:forEach name="sibTransForEach" axis="followSib" ptType="sibTrans" hideLastTrans="0" cnt="1">
+                <dgm:layoutNode name="sibTrans" styleLbl="sibTrans2D1">
+                  <dgm:alg type="conn">
+                    <dgm:param type="connRout" val="curve"/>
+                    <dgm:param type="begPts" val="ctr"/>
+                    <dgm:param type="endPts" val="ctr"/>
+                    <dgm:param type="begSty" val="noArr"/>
+                    <dgm:param type="endSty" val="noArr"/>
+                    <dgm:param type="dstNode" val="node"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:if>
+            <dgm:if name="Name24" axis="par ch" ptType="node node" func="cnt" op="equ" val="1">
+              <dgm:layoutNode name="oneComp">
+                <dgm:alg type="composite">
+                  <dgm:param type="ar" val="1"/>
+                </dgm:alg>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                  <dgm:constr type="l" for="ch" forName="dummyConnPt" refType="w" fact="0.5"/>
+                  <dgm:constr type="t" for="ch" forName="dummyConnPt" refType="w" fact="0.5"/>
+                  <dgm:constr type="l" for="ch" forName="oneNode"/>
+                  <dgm:constr type="t" for="ch" forName="oneNode"/>
+                  <dgm:constr type="h" for="ch" forName="oneNode" refType="h"/>
+                  <dgm:constr type="w" for="ch" forName="oneNode" refType="w"/>
+                </dgm:constrLst>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="dummyConnPt" styleLbl="node1">
+                  <dgm:alg type="sp"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="1"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="oneNode" styleLbl="node1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx">
+                    <dgm:param type="txAnchorVertCh" val="mid"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="desOrSelf" ptType="node"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="dummya">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                </dgm:constrLst>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="dummyb">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                </dgm:constrLst>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="dummyc">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w"/>
+                </dgm:constrLst>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+              <dgm:forEach name="sibTransForEach1" axis="followSib" ptType="sibTrans" hideLastTrans="0" cnt="1">
+                <dgm:layoutNode name="singleconn" styleLbl="sibTrans2D1">
+                  <dgm:alg type="conn">
+                    <dgm:param type="connRout" val="longCurve"/>
+                    <dgm:param type="begPts" val="bCtr"/>
+                    <dgm:param type="endPts" val="tCtr"/>
+                    <dgm:param type="begSty" val="noArr"/>
+                    <dgm:param type="endSty" val="noArr"/>
+                    <dgm:param type="srcNode" val="dummyConnPt"/>
+                    <dgm:param type="dstNode" val="dummyConnPt"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:if>
+            <dgm:else name="Name25"/>
+          </dgm:choose>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="20000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="7"/>
+      <dgm:chPref val="7"/>
+      <dgm:dir/>
+    </dgm:varLst>
+    <dgm:alg type="composite"/>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" refType="h" refFor="ch" op="gte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:layoutNode name="Name1">
+      <dgm:alg type="composite"/>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:choose name="Name2">
+        <dgm:if name="Name3" func="var" arg="dir" op="equ" val="norm">
+          <dgm:choose name="Name4">
+            <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.625"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name6" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2857"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1891"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.7143"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1891"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1526"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.8"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.1526"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1538"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1268"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3846"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.215"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.6154"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.215"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.8462"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.1268"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name9" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1082"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1978"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.6875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.1978"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.1082"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name10" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1053"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.0943"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2632"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1809"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.4211"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2205"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5789"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.2205"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.7368"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.1809"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.8947"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="h" fact="0.0943"/>
+                <dgm:constr type="l" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name11">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.0909"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.0835"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2273"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1658"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.3636"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2109"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.6364"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.2109"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.7727"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="h" fact="0.1658"/>
+                <dgm:constr type="l" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_7" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_7" refType="h" refFor="ch" refForName="accent_7" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_7" refType="h" fact="0.9091"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_7" refType="h" fact="0.0835"/>
+                <dgm:constr type="l" for="ch" forName="text_7" refType="ctrX" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="r" for="ch" forName="text_7" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_7" refType="h" refFor="ch" refForName="text_7" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_7" refType="h" refFor="ch" refForName="accent_7" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_7" refType="ctrY" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_7" refType="w" refFor="ch" refForName="accent_7" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:else name="Name12">
+          <dgm:choose name="Name13">
+            <dgm:if name="Name14" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.625"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name15" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2857"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1891"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.7143"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1891"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name16" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1526"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.8"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.1526"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1538"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1268"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3846"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.215"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.6154"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.215"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.8462"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.1268"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name18" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1082"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1978"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.6875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.1978"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.1082"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name19" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1053"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.0943"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2632"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1809"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.4211"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2205"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5789"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.2205"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.7368"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.1809"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.8947"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_6" refType="h" fact="-0.0943"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rOff" for="ch" forName="text_6" refType="ctrXOff" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="l" for="ch" forName="text_6"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name20">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.0909"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.0835"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2273"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1658"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.3636"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2109"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.6364"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.2109"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.7727"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_6" refType="h" fact="-0.1658"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rOff" for="ch" forName="text_6" refType="ctrXOff" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="l" for="ch" forName="text_6"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_7" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_7" refType="h" refFor="ch" refForName="accent_7" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_7" refType="h" fact="0.9091"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_7" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_7" refType="h" fact="-0.0835"/>
+                <dgm:constr type="r" for="ch" forName="text_7" refType="ctrX" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="rOff" for="ch" forName="text_7" refType="ctrXOff" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="l" for="ch" forName="text_7"/>
+                <dgm:constr type="w" for="ch" forName="text_7" refType="h" refFor="ch" refForName="text_7" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_7" refType="h" refFor="ch" refForName="accent_7" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_7" refType="ctrY" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_7" refType="w" refFor="ch" refForName="accent_7" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:layoutNode name="cycle">
+        <dgm:choose name="Name21">
+          <dgm:if name="Name22" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="45"/>
+              <dgm:param type="spanAng" val="90"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name23">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="225"/>
+              <dgm:param type="spanAng" val="90"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" val="1"/>
+          <dgm:constr type="h" for="ch" val="1"/>
+          <dgm:constr type="diam" for="ch" forName="conn" refType="diam"/>
+        </dgm:constrLst>
+        <dgm:layoutNode name="srcNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="conn" styleLbl="parChTrans1D2">
+          <dgm:alg type="conn">
+            <dgm:param type="connRout" val="curve"/>
+            <dgm:param type="srcNode" val="srcNode"/>
+            <dgm:param type="dstNode" val="dstNode"/>
+            <dgm:param type="begPts" val="ctr"/>
+            <dgm:param type="endPts" val="ctr"/>
+            <dgm:param type="endSty" val="noArr"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="sibTrans" hideLastTrans="0" st="0" cnt="1"/>
+          <dgm:constrLst>
+            <dgm:constr type="begPad"/>
+            <dgm:constr type="endPad"/>
+          </dgm:constrLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="extraNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="dstNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="wrapper" axis="self" ptType="parTrans">
+        <dgm:forEach name="wrapper2" axis="self" ptType="sibTrans" st="2">
+          <dgm:forEach name="accentRepeat" axis="self">
+            <dgm:layoutNode name="accentRepeatNode" styleLbl="solidFgAcc1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:forEach>
+      <dgm:forEach name="Name24" axis="ch" ptType="node" cnt="1">
+        <dgm:layoutNode name="text_1" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name25">
+            <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name27">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_1">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name28" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name29" axis="ch" ptType="node" st="2" cnt="1">
+        <dgm:layoutNode name="text_2" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name30">
+            <dgm:if name="Name31" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name32">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_2">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name33" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name34" axis="ch" ptType="node" st="3" cnt="1">
+        <dgm:layoutNode name="text_3" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name35">
+            <dgm:if name="Name36" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name37">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_3">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name38" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name39" axis="ch" ptType="node" st="4" cnt="1">
+        <dgm:layoutNode name="text_4" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name40">
+            <dgm:if name="Name41" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name42">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_4">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name43" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name44" axis="ch" ptType="node" st="5" cnt="1">
+        <dgm:layoutNode name="text_5" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name45">
+            <dgm:if name="Name46" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name47">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_5">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name48" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name49" axis="ch" ptType="node" st="6" cnt="1">
+        <dgm:layoutNode name="text_6" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name50">
+            <dgm:if name="Name51" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name52">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_6">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name53" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name54" axis="ch" ptType="node" st="7" cnt="1">
+        <dgm:layoutNode name="text_7" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name55">
+            <dgm:if name="Name56" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name57">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_7">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name58" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140115</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184730" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481924F2-136D-460C-8052-267A7F8141CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7123774" y="2243235"/>
+          <a:ext cx="184730" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="13462">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140115</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184730" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12699415-790E-4C85-812E-7BB0308AD071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7123776" y="2243235"/>
+          <a:ext cx="184730" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164009</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="组合 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3E78E2-16B2-4932-8AB5-DB2032B4B8F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3032760" y="1425702"/>
+          <a:ext cx="9551849" cy="3016758"/>
+          <a:chOff x="4678680" y="1296162"/>
+          <a:chExt cx="7650480" cy="2416249"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="12" name="图示 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDDA787-7F15-4AE8-8861-FD31383F3C9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4678680" y="1296162"/>
+          <a:ext cx="3505200" cy="2330958"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCB0E34-1B40-44FC-B63E-B8343DB3484D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6019419" y="2133029"/>
+            <a:ext cx="823722" cy="823722"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="333333"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="22000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="3000000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="7620">
+            <a:bevelT w="95250" h="31750"/>
+            <a:contourClr>
+              <a:srgbClr val="333333"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6D3559-6DA8-47BA-8A2F-3697BC1ADFD6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6137720" y="1300544"/>
+            <a:ext cx="587120" cy="612648"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="333333"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="22000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="3000000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="7620">
+            <a:bevelT w="95250" h="31750"/>
+            <a:contourClr>
+              <a:srgbClr val="333333"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8424EC1C-B8F3-4DAF-99CF-7545E8029E02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6935153" y="2715769"/>
+            <a:ext cx="591746" cy="595884"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="333333"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="22000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="3000000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="7620">
+            <a:bevelT w="95250" h="31750"/>
+            <a:contourClr>
+              <a:srgbClr val="333333"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图片 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0235744F-1FB2-4E3B-AA8E-1D021608F509}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5331524" y="2715769"/>
+            <a:ext cx="575193" cy="595883"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="333333"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="22000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="3000000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="7620">
+            <a:bevelT w="95250" h="31750"/>
+            <a:contourClr>
+              <a:srgbClr val="333333"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="文本框 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD9FFE4-BF4F-4DBC-BBF0-1D503F5F66AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6728460" y="1363980"/>
+            <a:ext cx="958083" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>蕾菲亚 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Rafia</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="文本框 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8C9ABE-9454-4C87-81DA-CE2CF29354DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6019800" y="3002280"/>
+            <a:ext cx="850489" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>绯末 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Famio</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="文本框 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A36700-965F-4961-8F37-EE4D799808BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5189220" y="3429000"/>
+            <a:ext cx="953081" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>索菲亚 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Sofia</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="文本框 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0810E272-B6C0-4A9A-B486-A05F68064DA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6926580" y="3421380"/>
+            <a:ext cx="728597" cy="283411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>林克 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Link</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="29" name="图示 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF30161-0982-4909-9D30-5B35CACA632A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7757160" y="1424940"/>
+          <a:ext cx="4572000" cy="2179320"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId10" r:lo="rId11" r:qs="rId12" r:cs="rId13"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:I34"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="20"/>
-    <tableColumn id="2" name="名称" dataDxfId="19"/>
-    <tableColumn id="3" name="类型" dataDxfId="18"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
-    <tableColumn id="6" name="价格" dataDxfId="13">
-      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="2" name="名称"/>
+    <tableColumn id="3" name="初阶职业"/>
+    <tableColumn id="5" name="高阶职业"/>
+    <tableColumn id="6" name="终极职业"/>
+    <tableColumn id="4" name="简介"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="0">
+  <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
     <tableColumn id="1" name="编号" dataDxfId="9"/>
     <tableColumn id="2" name="名称" dataDxfId="8"/>
@@ -811,7 +8870,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:I31"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="编号" dataDxfId="19"/>
+    <tableColumn id="2" name="名称" dataDxfId="18"/>
+    <tableColumn id="3" name="类型" dataDxfId="17"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="16"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="15"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="14"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="13"/>
+    <tableColumn id="6" name="价格" dataDxfId="12">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="描述" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:J34"/>
   <tableColumns count="10">
     <tableColumn id="1" name="名称"/>
@@ -1126,6 +9205,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,52 +9342,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1488,7 +9676,7 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1518,7 +9706,7 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1548,7 +9736,7 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1668,7 +9856,7 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1698,7 +9886,7 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1728,7 +9916,7 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1878,7 +10066,7 @@
       <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1908,7 +10096,7 @@
       <c r="E25" s="2">
         <v>10</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1938,7 +10126,7 @@
       <c r="E26" s="2">
         <v>20</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -2127,12 +10315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2142,7 +10330,7 @@
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69.88671875" customWidth="1"/>
   </cols>
@@ -2193,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>51</v>
@@ -2203,7 +10391,7 @@
         <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>51</v>
@@ -2233,7 +10421,7 @@
         <v>300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2253,7 +10441,7 @@
         <v>-5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>51</v>
@@ -2263,7 +10451,7 @@
         <v>360</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2283,7 +10471,7 @@
         <v>-20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>51</v>
@@ -2293,7 +10481,7 @@
         <v>625</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>51</v>
@@ -2323,7 +10511,7 @@
         <v>672</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2343,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>51</v>
@@ -2353,7 +10541,7 @@
         <v>1125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>51</v>
@@ -2383,7 +10571,7 @@
         <v>1200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2403,7 +10591,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>51</v>
@@ -2413,7 +10601,7 @@
         <v>1700</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2442,7 +10630,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>1680</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2461,7 +10651,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>51</v>
@@ -2470,7 +10660,9 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2225</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2489,7 +10681,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>51</v>
@@ -2498,7 +10690,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>2040</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2517,7 +10711,7 @@
         <v>-50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>51</v>
@@ -2526,7 +10720,9 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2225</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2544,7 +10740,7 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2554,7 +10750,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>2256</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2572,7 +10770,7 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2582,7 +10780,9 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2475</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2601,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>51</v>
@@ -2610,7 +10810,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>2640</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2628,17 +10830,19 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="H17" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2675</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2657,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>51</v>
@@ -2666,7 +10870,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>3000</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2685,16 +10891,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2675</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2713,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>51</v>
@@ -2722,7 +10930,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>3360</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2741,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>51</v>
@@ -2750,7 +10960,9 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3000</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2769,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>51</v>
@@ -2778,7 +10990,9 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>4152</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2797,7 +11011,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>51</v>
@@ -2806,7 +11020,9 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3950</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2825,7 +11041,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>51</v>
@@ -2834,14 +11050,16 @@
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>5160</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>82</v>
@@ -2862,14 +11080,16 @@
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>5000</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>82</v>
@@ -2878,74 +11098,166 @@
         <v>270</v>
       </c>
       <c r="E26" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="H26" s="2">
         <f>表2_24[[#This Row],[攻击力]]*24</f>
         <v>6480</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2">
+        <v>330</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="2">
+        <v>250</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="2">
+        <v>280</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="2">
+        <v>220</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -2983,7 +11295,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2997,7 +11309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D26">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3008,8 +11320,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3020,6 +11332,34 @@
           <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3054,10 +11394,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26</xm:sqref>
+          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
+          <x14:cfRule type="iconSet" priority="6" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3070,7 +11410,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="4" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
+          <x14:cfRule type="iconSet" priority="7" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3091,7 +11431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3106,7 +11446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3119,7 +11459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>

--- a/documents/COE开发数据.xlsx
+++ b/documents/COE开发数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11628" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="7" r:id="rId1"/>
     <sheet name="道具" sheetId="1" r:id="rId2"/>
-    <sheet name="武器 - 剑" sheetId="2" r:id="rId3"/>
-    <sheet name="武器 - 弓" sheetId="5" r:id="rId4"/>
+    <sheet name="武器 - 弓" sheetId="5" r:id="rId3"/>
+    <sheet name="武器 - 剑" sheetId="2" r:id="rId4"/>
     <sheet name="武器 - 法杖" sheetId="6" r:id="rId5"/>
-    <sheet name="防具" sheetId="3" r:id="rId6"/>
-    <sheet name="技能" sheetId="4" r:id="rId7"/>
+    <sheet name="武器 - 书" sheetId="8" r:id="rId6"/>
+    <sheet name="防具 - 轻甲" sheetId="3" r:id="rId7"/>
+    <sheet name="技能" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="201">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,6 +722,118 @@
   </si>
   <si>
     <t>每次攻击有可能对敌人造成死亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻羽之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永茂藤杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈合药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈合药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痊愈药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力（魔法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大主教之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创生之柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐日之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追月之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万理之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉权杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,19 +962,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="34">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -969,6 +1109,38 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -994,7 +1166,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3381,14 +3552,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="988907" y="358477"/>
-          <a:ext cx="2398529" cy="2398529"/>
+          <a:off x="1201056" y="371441"/>
+          <a:ext cx="2472605" cy="2472605"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
           <a:avLst>
             <a:gd name="adj1" fmla="val 9000000"/>
             <a:gd name="adj2" fmla="val 16200000"/>
-            <a:gd name="adj3" fmla="val 4634"/>
+            <a:gd name="adj3" fmla="val 4643"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3426,14 +3597,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="988907" y="358477"/>
-          <a:ext cx="2398529" cy="2398529"/>
+          <a:off x="1201056" y="371441"/>
+          <a:ext cx="2472605" cy="2472605"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
           <a:avLst>
             <a:gd name="adj1" fmla="val 1800000"/>
             <a:gd name="adj2" fmla="val 9000000"/>
-            <a:gd name="adj3" fmla="val 4634"/>
+            <a:gd name="adj3" fmla="val 4643"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3471,14 +3642,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="988907" y="358477"/>
-          <a:ext cx="2398529" cy="2398529"/>
+          <a:off x="1201056" y="371441"/>
+          <a:ext cx="2472605" cy="2472605"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
           <a:avLst>
             <a:gd name="adj1" fmla="val 16200000"/>
             <a:gd name="adj2" fmla="val 1800000"/>
-            <a:gd name="adj3" fmla="val 4634"/>
+            <a:gd name="adj3" fmla="val 4643"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3516,8 +3687,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1636855" y="1006425"/>
-          <a:ext cx="1102633" cy="1102633"/>
+          <a:off x="1867888" y="1038273"/>
+          <a:ext cx="1138941" cy="1138941"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3584,8 +3755,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1798332" y="1167902"/>
-        <a:ext cx="779679" cy="779679"/>
+        <a:off x="2034682" y="1205067"/>
+        <a:ext cx="805353" cy="805353"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C7E6DADE-A108-444C-B74C-08C05E38424C}">
@@ -3595,8 +3766,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1802250" y="341"/>
-          <a:ext cx="771843" cy="771843"/>
+          <a:off x="2038729" y="1512"/>
+          <a:ext cx="797259" cy="797259"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3663,8 +3834,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1915284" y="113375"/>
-        <a:ext cx="545775" cy="545775"/>
+        <a:off x="2155485" y="118268"/>
+        <a:ext cx="563747" cy="563747"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{92399CF5-5C73-437C-A728-069F888CD64D}">
@@ -3674,8 +3845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2816780" y="1757559"/>
-          <a:ext cx="771843" cy="771843"/>
+          <a:off x="3084543" y="1812915"/>
+          <a:ext cx="797259" cy="797259"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3742,8 +3913,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2929814" y="1870593"/>
-        <a:ext cx="545775" cy="545775"/>
+        <a:off x="3201299" y="1929671"/>
+        <a:ext cx="563747" cy="563747"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{15A4FB66-691E-4B74-94B9-A935470A1BE1}">
@@ -3753,8 +3924,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="787720" y="1757559"/>
-          <a:ext cx="771843" cy="771843"/>
+          <a:off x="992916" y="1812915"/>
+          <a:ext cx="797259" cy="797259"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3821,8 +3992,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="900754" y="1870593"/>
-        <a:ext cx="545775" cy="545775"/>
+        <a:off x="1109672" y="1929671"/>
+        <a:ext cx="563747" cy="563747"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3844,14 +4015,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="-3074827" y="-473402"/>
-          <a:ext cx="3667750" cy="3667750"/>
+          <a:off x="-3173968" y="-488474"/>
+          <a:ext cx="3785522" cy="3785522"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18900000"/>
             <a:gd name="adj2" fmla="val 2700000"/>
-            <a:gd name="adj3" fmla="val 589"/>
+            <a:gd name="adj3" fmla="val 571"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -3889,8 +4060,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="311041" y="209186"/>
-          <a:ext cx="5363260" cy="418590"/>
+          <a:off x="320768" y="215923"/>
+          <a:ext cx="6002201" cy="432070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3929,12 +4100,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="342956" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3947,31 +4118,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>佣兵 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>剑士 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>骑士</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="311041" y="209186"/>
-        <a:ext cx="5363260" cy="418590"/>
+        <a:off x="320768" y="215923"/>
+        <a:ext cx="6002201" cy="432070"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{382D7CFA-0A15-4BE3-82E0-A183095DE763}">
@@ -3981,8 +4152,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="49422" y="156862"/>
-          <a:ext cx="523237" cy="523237"/>
+          <a:off x="50724" y="161914"/>
+          <a:ext cx="540088" cy="540088"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4026,8 +4197,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="551028" y="837180"/>
-          <a:ext cx="5123272" cy="418590"/>
+          <a:off x="568484" y="864141"/>
+          <a:ext cx="5754485" cy="432070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4067,12 +4238,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="342956" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4085,31 +4256,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>神官 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>祭司 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>主教</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="551028" y="837180"/>
-        <a:ext cx="5123272" cy="418590"/>
+        <a:off x="568484" y="864141"/>
+        <a:ext cx="5754485" cy="432070"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6C7A73D1-0116-4798-8AAE-CC464B8B3B19}">
@@ -4119,8 +4290,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="289409" y="784856"/>
-          <a:ext cx="523237" cy="523237"/>
+          <a:off x="298440" y="810132"/>
+          <a:ext cx="540088" cy="540088"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4165,8 +4336,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="551028" y="1465174"/>
-          <a:ext cx="5123272" cy="418590"/>
+          <a:off x="568484" y="1512360"/>
+          <a:ext cx="5754485" cy="432070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4203,12 +4374,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="342956" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4221,30 +4392,30 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>斥候 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>弓手 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>游侠</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="551028" y="1465174"/>
-        <a:ext cx="5123272" cy="418590"/>
+        <a:off x="568484" y="1512360"/>
+        <a:ext cx="5754485" cy="432070"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7230D769-83A9-46A7-A326-452336395835}">
@@ -4254,8 +4425,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="289409" y="1412850"/>
-          <a:ext cx="523237" cy="523237"/>
+          <a:off x="298440" y="1458351"/>
+          <a:ext cx="540088" cy="540088"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4297,8 +4468,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="311041" y="2093168"/>
-          <a:ext cx="5363260" cy="418590"/>
+          <a:off x="320768" y="2160579"/>
+          <a:ext cx="6002201" cy="432070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4340,12 +4511,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="332256" tIns="48260" rIns="48260" bIns="48260" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="342956" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="844550">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4358,30 +4529,30 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>学徒 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>法师 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>— </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>贤者</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="311041" y="2093168"/>
-        <a:ext cx="5363260" cy="418590"/>
+        <a:off x="320768" y="2160579"/>
+        <a:ext cx="6002201" cy="432070"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2D4964B1-1933-4565-8014-FBD559F0EDBC}">
@@ -4391,8 +4562,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="49422" y="2040844"/>
-          <a:ext cx="523237" cy="523237"/>
+          <a:off x="50724" y="2106570"/>
+          <a:ext cx="540088" cy="540088"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8333,8 +8504,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3032760" y="1425702"/>
-          <a:ext cx="9551849" cy="3016758"/>
+          <a:off x="3307080" y="1471422"/>
+          <a:ext cx="10639604" cy="3113913"/>
           <a:chOff x="4678680" y="1296162"/>
           <a:chExt cx="7650480" cy="2416249"/>
         </a:xfrm>
@@ -8850,47 +9021,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:I31"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="编号" dataDxfId="31"/>
+    <tableColumn id="2" name="名称" dataDxfId="30"/>
+    <tableColumn id="3" name="类型" dataDxfId="29"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="28"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="27"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="26"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="25"/>
+    <tableColumn id="6" name="价格" dataDxfId="24">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="描述" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:I26"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="编号" dataDxfId="20"/>
+    <tableColumn id="2" name="名称" dataDxfId="19"/>
+    <tableColumn id="3" name="类型" dataDxfId="18"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
+    <tableColumn id="6" name="价格" dataDxfId="13">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="描述" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_246" displayName="表2_246" ref="A1:I26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
     <tableColumn id="1" name="编号" dataDxfId="9"/>
     <tableColumn id="2" name="名称" dataDxfId="8"/>
     <tableColumn id="3" name="类型" dataDxfId="7"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="6"/>
+    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="6"/>
     <tableColumn id="8" name="速度修正" dataDxfId="5"/>
     <tableColumn id="9" name="伤害类型" dataDxfId="4"/>
     <tableColumn id="10" name="附加效果" dataDxfId="3"/>
-    <tableColumn id="6" name="价格" dataDxfId="2">
-      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" name="价格" dataDxfId="2"/>
     <tableColumn id="4" name="描述" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:I31"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="19"/>
-    <tableColumn id="2" name="名称" dataDxfId="18"/>
-    <tableColumn id="3" name="类型" dataDxfId="17"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="16"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="15"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="14"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="13"/>
-    <tableColumn id="6" name="价格" dataDxfId="12">
-      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="10">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:J34"/>
   <tableColumns count="10">
     <tableColumn id="1" name="名称"/>
@@ -9211,96 +9400,96 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>116</v>
+      <c r="C3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -9315,15 +9504,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9331,9 +9523,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -9346,59 +9568,1175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>625</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>672</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1125</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1200</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1700</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1680</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2040</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2256</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2475</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2640</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3360</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2">
+        <v>155</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2">
+        <v>173</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>4152</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2">
+        <v>190</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3950</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2">
+        <v>215</v>
+      </c>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>5160</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2">
+        <v>240</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2">
+        <v>270</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>6480</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="2">
+        <v>330</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2">
+        <v>250</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="2">
+        <v>280</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2">
+        <v>220</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7D18F12-FF6D-4AA6-8679-F747D6269018}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7D18F12-FF6D-4AA6-8679-F747D6269018}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{890A695A-1DF7-4765-9643-D869783A385D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="7" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E2:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="64.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -9407,28 +10745,28 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
@@ -9437,28 +10775,28 @@
         <v>-3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -9467,28 +10805,28 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>250</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
@@ -9497,28 +10835,28 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>625</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>15</v>
@@ -9527,28 +10865,28 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>375</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>45</v>
@@ -9557,28 +10895,28 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>1125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>55</v>
@@ -9587,28 +10925,28 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>1375</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>68</v>
@@ -9617,28 +10955,28 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>1700</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>81</v>
@@ -9647,28 +10985,28 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2025</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>89</v>
@@ -9677,28 +11015,28 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2225</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>89</v>
@@ -9707,28 +11045,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2225</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>89</v>
@@ -9737,28 +11075,28 @@
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2225</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>95</v>
@@ -9767,28 +11105,28 @@
         <v>-10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2375</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>99</v>
@@ -9797,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2475</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>99</v>
@@ -9827,28 +11165,28 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2475</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>107</v>
@@ -9857,28 +11195,28 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2675</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2">
         <v>107</v>
@@ -9887,28 +11225,28 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2675</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>107</v>
@@ -9917,28 +11255,28 @@
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>2675</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>130</v>
@@ -9947,28 +11285,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3250</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
         <v>120</v>
@@ -9977,28 +11315,28 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
         <v>140</v>
@@ -10007,28 +11345,28 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3500</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>158</v>
@@ -10037,28 +11375,28 @@
         <v>-20</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>3950</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2">
         <v>180</v>
@@ -10067,28 +11405,28 @@
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>4500</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
         <v>200</v>
@@ -10097,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>5000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>250</v>
@@ -10127,20 +11465,20 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2">
         <f>表2_2[[#This Row],[攻击力]]*25</f>
         <v>6250</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10151,7 +11489,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -10162,7 +11500,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -10173,7 +11511,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -10184,7 +11522,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -10195,7 +11533,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10206,7 +11544,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10217,7 +11555,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10315,982 +11653,525 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.88671875" customWidth="1"/>
+    <col min="7" max="7" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>72</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>300</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>360</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>625</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>672</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>1125</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>1200</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="2">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>1700</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="2">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>1680</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2225</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2040</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2">
-        <v>110</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2225</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2256</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2">
-        <v>94</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2475</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2">
-        <v>110</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2640</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2">
-        <v>117</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2675</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2">
-        <v>125</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>3000</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2">
-        <v>120</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2675</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2">
-        <v>140</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>3360</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2">
-        <v>155</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>3000</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2">
-        <v>173</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>4152</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="2">
-        <v>190</v>
-      </c>
-      <c r="E23" s="2">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>3950</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2">
-        <v>215</v>
-      </c>
-      <c r="E24" s="2">
-        <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>5160</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2">
-        <v>240</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-20</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>5000</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="2">
-        <v>270</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>6480</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="2">
-        <v>330</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>164</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="2">
-        <v>250</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>163</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="2">
-        <v>280</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="2">
-        <v>220</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>165</v>
-      </c>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="2">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11303,7 +12184,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E7D18F12-FF6D-4AA6-8679-F747D6269018}</x14:id>
+          <x14:id>{A2B80366-E788-4E34-8813-CC22915EBFEE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11329,12 +12210,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
+          <x14:id>{35F8DBB0-ABAD-4DC7-A5E2-291EF3216F98}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
+  <conditionalFormatting sqref="D2:D26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11346,19 +12227,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
+  <conditionalFormatting sqref="E2:E26">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -11371,7 +12252,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E7D18F12-FF6D-4AA6-8679-F747D6269018}">
+          <x14:cfRule type="dataBar" id="{A2B80366-E788-4E34-8813-CC22915EBFEE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11384,7 +12265,7 @@
           <xm:sqref>H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{890A695A-1DF7-4765-9643-D869783A385D}">
+          <x14:cfRule type="dataBar" id="{35F8DBB0-ABAD-4DC7-A5E2-291EF3216F98}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11397,7 +12278,7 @@
           <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
+          <x14:cfRule type="iconSet" priority="6" id="{F23E11A4-959F-4CA8-81B4-3D02EEDE1CAF}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11410,7 +12291,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="7" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
+          <x14:cfRule type="iconSet" priority="7" id="{FD84F231-7176-435C-9189-3E4F35DA305F}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11431,28 +12312,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11461,53 +12327,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/documents/COE开发数据.xlsx
+++ b/documents/COE开发数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11625" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11628" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="206">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,6 +834,26 @@
   </si>
   <si>
     <t>光辉权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝结法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢化魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶法杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9400,14 +9420,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="11"/>
+    <col min="1" max="1" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9424,7 +9444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>116</v>
       </c>
@@ -9441,7 +9461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>117</v>
       </c>
@@ -9458,7 +9478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>118</v>
       </c>
@@ -9475,7 +9495,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
@@ -9510,12 +9530,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9523,37 +9543,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9568,23 +9588,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.875" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9613,7 +9633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9643,7 +9663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9673,7 +9693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9703,7 +9723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9733,7 +9753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9763,7 +9783,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9793,7 +9813,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9823,7 +9843,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9853,7 +9873,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9883,7 +9903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9913,7 +9933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9943,7 +9963,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9973,7 +9993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10003,7 +10023,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10033,7 +10053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10063,7 +10083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10093,7 +10113,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10123,7 +10143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10153,7 +10173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10183,7 +10203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10213,7 +10233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10243,7 +10263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10273,7 +10293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10303,7 +10323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10333,7 +10353,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10363,7 +10383,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10392,7 +10412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10421,7 +10441,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10450,7 +10470,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10479,7 +10499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10508,7 +10528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10519,7 +10539,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10530,7 +10550,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10688,18 +10708,18 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="8"/>
+    <col min="9" max="9" width="64.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -10728,7 +10748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10758,7 +10778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10788,7 +10808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10818,7 +10838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10848,7 +10868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10878,7 +10898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10908,7 +10928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10938,7 +10958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10968,7 +10988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10998,7 +11018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11058,7 +11078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11088,7 +11108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11118,7 +11138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11148,7 +11168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11178,7 +11198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11208,7 +11228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11238,7 +11258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11268,7 +11288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11298,7 +11318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11358,7 +11378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11388,7 +11408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11418,7 +11438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -11448,7 +11468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -11478,7 +11498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11489,7 +11509,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11500,7 +11520,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -11511,7 +11531,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -11522,7 +11542,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -11533,7 +11553,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -11544,7 +11564,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11555,7 +11575,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -11660,23 +11680,23 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11705,7 +11725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11722,7 +11742,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -11739,7 +11759,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11756,7 +11776,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11773,7 +11793,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11790,7 +11810,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11807,7 +11827,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11824,7 +11844,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11841,7 +11861,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11858,7 +11878,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11875,11 +11895,13 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>193</v>
       </c>
@@ -11890,7 +11912,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11907,11 +11929,13 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>193</v>
       </c>
@@ -11922,11 +11946,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>193</v>
       </c>
@@ -11937,7 +11963,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11952,11 +11978,13 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>193</v>
       </c>
@@ -11967,11 +11995,13 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>193</v>
       </c>
@@ -11982,7 +12012,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11999,7 +12029,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -12016,7 +12046,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -12033,7 +12063,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -12050,7 +12080,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -12067,7 +12097,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -12084,7 +12114,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -12101,7 +12131,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -12118,7 +12148,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -12129,7 +12159,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12140,7 +12170,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -12151,7 +12181,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -12162,7 +12192,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -12318,7 +12348,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12331,7 +12361,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12346,18 +12376,18 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/documents/COE开发数据.xlsx
+++ b/documents/COE开发数据.xlsx
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="角色" sheetId="7" r:id="rId1"/>
     <sheet name="道具" sheetId="1" r:id="rId2"/>
-    <sheet name="武器 - 弓" sheetId="5" r:id="rId3"/>
-    <sheet name="武器 - 剑" sheetId="2" r:id="rId4"/>
+    <sheet name="武器 - 剑" sheetId="2" r:id="rId3"/>
+    <sheet name="武器 - 弓" sheetId="5" r:id="rId4"/>
     <sheet name="武器 - 法杖" sheetId="6" r:id="rId5"/>
     <sheet name="武器 - 书" sheetId="8" r:id="rId6"/>
     <sheet name="防具 - 轻甲" sheetId="3" r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,6 +854,138 @@
   </si>
   <si>
     <t>水晶法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木制的法杖，在初学者中广为使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上料红木制作的法杖，相对木杖拥有更强的法力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用铁锻造的法杖，可以施展出更多的魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身附着着魔法力量的法杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在杖顶镶嵌着一颗红宝石，可以透过聚焦来提升法力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官最喜欢使用的法杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用地下石英制成的法杖，拥有暗属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰法力的象征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说在很早前创世之时所被神使用的法杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有祝福之力的法杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过注入守护之力的法杖，可以庇护队友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这把法杖中蕴含着无限的知识和万理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉之力指引着我们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用魔法的力量來引导水晶生长方向后形成法杖的外形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶莹的钻石法杖会让一些贪婪的人着迷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从它被打造之出起，审判邪魔的任务便伴随其一生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收月亮之力后，法杖变化成了暗属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收太阳之力后，法杖变化成了光属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢化的法杖，谁都不了解为什么法杖要做得这么坚固。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司使用的法杖，但常常被用于医疗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望向杖顶的黑眼，看到的是无尽的贪婪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻羽毛遍布杖身，非常轻便。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有自愈能力的法杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性的法杖，可以增强火属性伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性的法杖，可以增强水属性伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合恢复持有者最大生命值的1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性伤害提升20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性伤害提升20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗属性伤害提升20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光属性伤害提升20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升持有者防御能力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,10 +1114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,15 +1149,16 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9041,6 +9174,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:I26"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="编号" dataDxfId="20"/>
+    <tableColumn id="2" name="名称" dataDxfId="19"/>
+    <tableColumn id="3" name="类型" dataDxfId="18"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
+    <tableColumn id="6" name="价格" dataDxfId="13">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="描述" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:I31"/>
   <tableColumns count="9">
@@ -9060,46 +9213,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_246" displayName="表2_246" ref="A1:I26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="20"/>
-    <tableColumn id="2" name="名称" dataDxfId="19"/>
-    <tableColumn id="3" name="类型" dataDxfId="18"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
-    <tableColumn id="6" name="价格" dataDxfId="13">
-      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    <tableColumn id="1" name="编号" dataDxfId="10"/>
+    <tableColumn id="2" name="名称" dataDxfId="9"/>
+    <tableColumn id="3" name="类型" dataDxfId="8"/>
+    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="7"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="6"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="5"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="4"/>
+    <tableColumn id="6" name="价格" dataDxfId="3">
+      <calculatedColumnFormula>表2_246[[#This Row],[攻击力（魔法）]]*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_246" displayName="表2_246" ref="A1:I26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:I26"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="9"/>
-    <tableColumn id="2" name="名称" dataDxfId="8"/>
-    <tableColumn id="3" name="类型" dataDxfId="7"/>
-    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="6"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="5"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="4"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="3"/>
-    <tableColumn id="6" name="价格" dataDxfId="2"/>
-    <tableColumn id="4" name="描述" dataDxfId="1"/>
+    <tableColumn id="4" name="描述" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:J34"/>
   <tableColumns count="10">
     <tableColumn id="1" name="名称"/>
@@ -9588,1124 +9723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>72</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>300</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>360</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="2">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>625</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>672</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>1125</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>1200</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>1700</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>1680</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2225</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2040</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="2">
-        <v>110</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2225</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="2">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2256</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2">
-        <v>94</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2475</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="2">
-        <v>110</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>2640</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2">
-        <v>117</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2675</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2">
-        <v>125</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>3000</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2">
-        <v>120</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>2675</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2">
-        <v>140</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>3360</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2">
-        <v>155</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>3000</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2">
-        <v>173</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>4152</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2">
-        <v>190</v>
-      </c>
-      <c r="E23" s="2">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>3950</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2">
-        <v>215</v>
-      </c>
-      <c r="E24" s="2">
-        <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>5160</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2">
-        <v>240</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-20</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2">
-        <f>表2_2[[#This Row],[攻击力]]*25</f>
-        <v>5000</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2">
-        <v>270</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="2">
-        <f>表2_24[[#This Row],[攻击力]]*24</f>
-        <v>6480</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="2">
-        <v>330</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="2">
-        <v>250</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="2">
-        <v>280</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="2">
-        <v>220</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="2">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="2">
-        <v>6480</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E7D18F12-FF6D-4AA6-8679-F747D6269018}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D26">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E7D18F12-FF6D-4AA6-8679-F747D6269018}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{890A695A-1DF7-4765-9643-D869783A385D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="7" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E2:E26</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11673,6 +10692,1122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>625</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>672</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1125</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1200</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1700</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1680</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2040</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2256</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2475</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2640</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3360</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2">
+        <v>155</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2">
+        <v>173</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>4152</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2">
+        <v>190</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3950</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2">
+        <v>215</v>
+      </c>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>5160</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2">
+        <v>240</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2">
+        <v>270</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>6480</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="2">
+        <v>330</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2">
+        <v>250</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="2">
+        <v>280</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2">
+        <v>220</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7D18F12-FF6D-4AA6-8679-F747D6269018}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7D18F12-FF6D-4AA6-8679-F747D6269018}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{890A695A-1DF7-4765-9643-D869783A385D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26:H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="7" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E2:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -11681,47 +11816,47 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11735,12 +11870,25 @@
       <c r="C2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -11752,12 +11900,25 @@
       <c r="C3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -11769,12 +11930,25 @@
       <c r="C4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>168</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -11786,12 +11960,25 @@
       <c r="C5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -11803,12 +11990,25 @@
       <c r="C6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>384</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -11820,12 +12020,25 @@
       <c r="C7" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="D7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>528</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -11837,12 +12050,25 @@
       <c r="C8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="D8" s="2">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>696</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -11854,12 +12080,25 @@
       <c r="C9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="D9" s="2">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>888</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -11871,12 +12110,25 @@
       <c r="C10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="2">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>1104</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -11888,12 +12140,25 @@
       <c r="C11" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="2">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>1344</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -11905,12 +12170,25 @@
       <c r="C12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="D12" s="2">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>1608</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -11922,12 +12200,25 @@
       <c r="C13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>1896</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -11939,12 +12230,25 @@
       <c r="C14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="D14" s="2">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>1944</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -11956,27 +12260,55 @@
       <c r="C15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="D15" s="2">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>2280</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="D16" s="2">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>2880</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -11988,12 +12320,25 @@
       <c r="C17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="D17" s="2">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>3264</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -12005,12 +12350,25 @@
       <c r="C18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="D18" s="2">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>3432</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -12022,12 +12380,25 @@
       <c r="C19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="2">
+        <v>161</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>3864</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -12039,12 +12410,25 @@
       <c r="C20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="D20" s="2">
+        <v>180</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>4320</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -12056,12 +12440,25 @@
       <c r="C21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>4800</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -12073,12 +12470,25 @@
       <c r="C22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D22" s="2">
+        <v>221</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>5304</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -12090,12 +12500,25 @@
       <c r="C23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="D23" s="2">
+        <v>243</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>5832</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -12107,12 +12530,25 @@
       <c r="C24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="D24" s="2">
+        <v>266</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>6384</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -12124,12 +12560,25 @@
       <c r="C25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="D25" s="2">
+        <v>270</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>6480</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -12141,12 +12590,25 @@
       <c r="C26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="D26" s="2">
+        <v>300</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="2">
+        <f>表2_246[[#This Row],[攻击力（魔法）]]*24</f>
+        <v>7200</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -12154,7 +12616,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -12165,7 +12627,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -12176,7 +12638,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -12187,7 +12649,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12198,7 +12660,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>

--- a/documents/COE开发数据.xlsx
+++ b/documents/COE开发数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11628" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="265">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,6 +986,88 @@
   </si>
   <si>
     <t>提升持有者防御能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法笔记【0】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法笔记【4】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法笔记【8】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法笔记【12】</t>
+  </si>
+  <si>
+    <t>魔法笔记【16】</t>
+  </si>
+  <si>
+    <t>魔法笔记【20】</t>
+  </si>
+  <si>
+    <t>魔法笔记【24】</t>
+  </si>
+  <si>
+    <t>魔法笔记【28】</t>
+  </si>
+  <si>
+    <t>魔法笔记【32】</t>
+  </si>
+  <si>
+    <t>魔法笔记【36】</t>
+  </si>
+  <si>
+    <t>魔法笔记【40】</t>
+  </si>
+  <si>
+    <t>魔法笔记【44】</t>
+  </si>
+  <si>
+    <t>魔法笔记【48】</t>
+  </si>
+  <si>
+    <t>魔法笔记【52】</t>
+  </si>
+  <si>
+    <t>魔法笔记【56】</t>
+  </si>
+  <si>
+    <t>魔法笔记【60】</t>
+  </si>
+  <si>
+    <t>魔法笔记【64】</t>
+  </si>
+  <si>
+    <t>魔法笔记【68】</t>
+  </si>
+  <si>
+    <t>魔法笔记【72】</t>
+  </si>
+  <si>
+    <t>魔法笔记【76】</t>
+  </si>
+  <si>
+    <t>魔法笔记【80】</t>
+  </si>
+  <si>
+    <t>魔法笔记【84】</t>
+  </si>
+  <si>
+    <t>魔法笔记【88】</t>
+  </si>
+  <si>
+    <t>魔法笔记【92】</t>
+  </si>
+  <si>
+    <t>魔法笔记【96】</t>
+  </si>
+  <si>
+    <t>魔法书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1206,104 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1155,10 +1334,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1263,62 +1442,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9174,67 +9297,80 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I26" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="20"/>
-    <tableColumn id="2" name="名称" dataDxfId="19"/>
-    <tableColumn id="3" name="类型" dataDxfId="18"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
-    <tableColumn id="6" name="价格" dataDxfId="13">
+    <tableColumn id="1" name="编号" dataDxfId="37"/>
+    <tableColumn id="2" name="名称" dataDxfId="36"/>
+    <tableColumn id="3" name="类型" dataDxfId="35"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="34"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="33"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="32"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="31"/>
+    <tableColumn id="6" name="价格" dataDxfId="30">
       <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="12"/>
+    <tableColumn id="4" name="描述" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I31" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:I31"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="31"/>
-    <tableColumn id="2" name="名称" dataDxfId="30"/>
-    <tableColumn id="3" name="类型" dataDxfId="29"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="28"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="27"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="26"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="25"/>
-    <tableColumn id="6" name="价格" dataDxfId="24">
+    <tableColumn id="1" name="编号" dataDxfId="26"/>
+    <tableColumn id="2" name="名称" dataDxfId="25"/>
+    <tableColumn id="3" name="类型" dataDxfId="24"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="23"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="22"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="21"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="20"/>
+    <tableColumn id="6" name="价格" dataDxfId="19">
       <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="23"/>
+    <tableColumn id="4" name="描述" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_246" displayName="表2_246" ref="A1:I26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_246" displayName="表2_246" ref="A1:I26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="10"/>
-    <tableColumn id="2" name="名称" dataDxfId="9"/>
-    <tableColumn id="3" name="类型" dataDxfId="8"/>
-    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="7"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="6"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="5"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="4"/>
-    <tableColumn id="6" name="价格" dataDxfId="3">
+    <tableColumn id="1" name="编号" dataDxfId="15"/>
+    <tableColumn id="2" name="名称" dataDxfId="14"/>
+    <tableColumn id="3" name="类型" dataDxfId="13"/>
+    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="12"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="11"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="10"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="9"/>
+    <tableColumn id="6" name="价格" dataDxfId="8">
       <calculatedColumnFormula>表2_246[[#This Row],[攻击力（魔法）]]*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="描述" dataDxfId="2"/>
+    <tableColumn id="4" name="描述" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_2467" displayName="表2_2467" ref="A1:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="编号" dataDxfId="3"/>
+    <tableColumn id="2" name="名称" dataDxfId="2"/>
+    <tableColumn id="3" name="类型" dataDxfId="1"/>
+    <tableColumn id="5" name="攻击力（魔法）" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:J34"/>
   <tableColumns count="10">
     <tableColumn id="1" name="名称"/>
@@ -9555,14 +9691,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="12.4140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.9140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9579,7 +9715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>116</v>
       </c>
@@ -9596,7 +9732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>117</v>
       </c>
@@ -9613,7 +9749,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>118</v>
       </c>
@@ -9630,7 +9766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
@@ -9665,12 +9801,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9678,37 +9814,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9727,18 +9863,18 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.4140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="10" max="16384" width="8.9140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -9767,7 +9903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9797,7 +9933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9827,7 +9963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9857,7 +9993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9887,7 +10023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9917,7 +10053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9947,7 +10083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9977,7 +10113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10007,7 +10143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10037,7 +10173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10067,7 +10203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10097,7 +10233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10127,7 +10263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10157,7 +10293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10187,7 +10323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10217,7 +10353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10247,7 +10383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10277,7 +10413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10307,7 +10443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10337,7 +10473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10367,7 +10503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10397,7 +10533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10427,7 +10563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10457,7 +10593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10487,7 +10623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10517,7 +10653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10528,7 +10664,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -10539,7 +10675,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -10550,7 +10686,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -10561,7 +10697,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -10572,7 +10708,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10583,7 +10719,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10594,7 +10730,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10700,19 +10836,19 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10741,7 +10877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10771,7 +10907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10801,7 +10937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10831,7 +10967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10861,7 +10997,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10891,7 +11027,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10921,7 +11057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10951,7 +11087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10981,7 +11117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11011,7 +11147,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11041,7 +11177,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11071,7 +11207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11101,7 +11237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11131,7 +11267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11161,7 +11297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11191,7 +11327,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11221,7 +11357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11251,7 +11387,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11281,7 +11417,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11311,7 +11447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11341,7 +11477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11371,7 +11507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11401,7 +11537,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11431,7 +11567,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -11461,7 +11597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -11491,7 +11627,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -11520,7 +11656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -11549,7 +11685,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -11578,7 +11714,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11607,7 +11743,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11636,7 +11772,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -11647,7 +11783,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11658,7 +11794,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -11815,23 +11951,23 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -11860,7 +11996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11890,7 +12026,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -11920,7 +12056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11950,7 +12086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11980,7 +12116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -12010,7 +12146,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -12040,7 +12176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -12070,7 +12206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -12100,7 +12236,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -12130,7 +12266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -12160,7 +12296,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -12190,7 +12326,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -12220,7 +12356,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -12250,7 +12386,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -12280,7 +12416,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -12310,7 +12446,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -12340,7 +12476,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -12370,7 +12506,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -12400,7 +12536,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -12430,7 +12566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -12460,7 +12596,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -12490,7 +12626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -12520,7 +12656,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -12550,7 +12686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -12580,7 +12716,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -12610,7 +12746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -12621,7 +12757,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12632,7 +12768,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -12643,7 +12779,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -12654,7 +12790,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -12806,14 +12942,413 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="2">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12823,7 +13358,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12838,18 +13373,18 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
